--- a/biology/Botanique/Belamcanda_chinensis/Belamcanda_chinensis.xlsx
+++ b/biology/Botanique/Belamcanda_chinensis/Belamcanda_chinensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Belamcanda Chinensis, Fleur Léopard est une plante ornementale de la famille des iridacées[1]. Elle est aussi connue sous les noms d’iris tigré, pardanthe de Chine, belamcanda des Morées. Les anglophones la nomme blackberry lily, leopard lily ou leopard flower.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Belamcanda Chinensis, Fleur Léopard est une plante ornementale de la famille des iridacées. Elle est aussi connue sous les noms d’iris tigré, pardanthe de Chine, belamcanda des Morées. Les anglophones la nomme blackberry lily, leopard lily ou leopard flower.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Epidendrum domesticum L.
 Vanilla domestica (L.) Druce
@@ -552,18 +566,16 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Écologie et habitat
-Plante vivace par son rhizome, elle est originaire du sud-est de l’Asie, dont la Chine, l’Inde et le Japon. Elle supporte les climats tempérés (jusqu’à −15 °C) en étant exposée au soleil ou mi-ombre.
+          <t>Écologie et habitat</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Plante vivace par son rhizome, elle est originaire du sud-est de l’Asie, dont la Chine, l’Inde et le Japon. Elle supporte les climats tempérés (jusqu’à −15 °C) en étant exposée au soleil ou mi-ombre.
 Floraison : en été, de juin à août.
 Pollinisation : entomogame
-Dissémination : barochore
-Morphologie générale et végétative
-Plante herbacée rhizomateuse, à tiges de 60 à 90 cm. Son feuillage est fait de longues et étroites feuilles amplexicaule.
-Morphologie florale
-Sa floraison, faite de petites fleurs à 6 pétales à corolles rotacées a lieu principalement en été. Elle possède 3 étamines et 1 long style trifide. Les fleurs de belamcanda chinensis sont surtout de couleur rouge orangé, mais aussi avec des dominantes jaunes ou rose.
-Fruit et graines
-Ses fruits sont des capsules turbinées, renflées à 3 valves, déhiscente contenant les graines noires, sphériques et brillantes.
-</t>
+Dissémination : barochore</t>
         </is>
       </c>
     </row>
@@ -588,13 +600,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Origine du nom</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Son nom, Belamcanda, lui a été donné par Michel Adanson. Un nom précédemment imposé par Hendrik van Rheede l'avait inclus aux ixias faisant allusion à la forme de la corolle. Mais comme la plupart des autres ixia ont des fleurs tubuleuses, le nom de celles-ci devait cesser d’être significatif.
-Par la suite un genre fut créé Moroea chinensis vite abandonné dont elle ne conserva plus que le nom commun qui subsiste dans certains ouvrages. Belamcanda des Morées est un des nombreux noms issu du parlé au Malabar faisant partie de la longue liste des noms locaux donné par Hendrik van Rheede[2].
+          <t>Morphologie générale et végétative</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante herbacée rhizomateuse, à tiges de 60 à 90 cm. Son feuillage est fait de longues et étroites feuilles amplexicaule.
 </t>
         </is>
       </c>
@@ -620,10 +637,120 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Morphologie florale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa floraison, faite de petites fleurs à 6 pétales à corolles rotacées a lieu principalement en été. Elle possède 3 étamines et 1 long style trifide. Les fleurs de belamcanda chinensis sont surtout de couleur rouge orangé, mais aussi avec des dominantes jaunes ou rose.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Belamcanda_chinensis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Belamcanda_chinensis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Fruit et graines</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses fruits sont des capsules turbinées, renflées à 3 valves, déhiscente contenant les graines noires, sphériques et brillantes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Belamcanda_chinensis</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Belamcanda_chinensis</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Origine du nom</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom, Belamcanda, lui a été donné par Michel Adanson. Un nom précédemment imposé par Hendrik van Rheede l'avait inclus aux ixias faisant allusion à la forme de la corolle. Mais comme la plupart des autres ixia ont des fleurs tubuleuses, le nom de celles-ci devait cesser d’être significatif.
+Par la suite un genre fut créé Moroea chinensis vite abandonné dont elle ne conserva plus que le nom commun qui subsiste dans certains ouvrages. Belamcanda des Morées est un des nombreux noms issu du parlé au Malabar faisant partie de la longue liste des noms locaux donné par Hendrik van Rheede.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Belamcanda_chinensis</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Belamcanda_chinensis</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Protection</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante n'est pas menacée.
 </t>
